--- a/biology/Botanique/Eriostemon_australasius/Eriostemon_australasius.xlsx
+++ b/biology/Botanique/Eriostemon_australasius/Eriostemon_australasius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriostemon australasius est une espèce de plantes à fleur de la famille des Rutaceae (agrumes) originaire de l'est de l'Australie.
 C'est un arbuste commun en Nouvelle-Galles du Sud et au Queensland, le long de la côte est de l'Australie. C'est l'un des fleurs les plus spectaculaires de Sydney en fin d'hiver et au début du printemps.
